--- a/medicine/Pharmacie/Expectorant/Expectorant.xlsx
+++ b/medicine/Pharmacie/Expectorant/Expectorant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un expectorant est un médicament ou une herbe qui augmente l'expulsion du mucus de la trachée ou des bronches par de l'expectoration[1] ou de la toux[2].
-Les expectorants n'ont pas d'efficacité scientifique prouvée, leurs intérêts peuvent donc être limités[3],[4]. De plus, lorsque la toux est productive, elle est souvent bénéfique car permet l'évacuation du pathogène ou de l'allergène.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un expectorant est un médicament ou une herbe qui augmente l'expulsion du mucus de la trachée ou des bronches par de l'expectoration ou de la toux.
+Les expectorants n'ont pas d'efficacité scientifique prouvée, leurs intérêts peuvent donc être limités,. De plus, lorsque la toux est productive, elle est souvent bénéfique car permet l'évacuation du pathogène ou de l'allergène.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Expectorants végétaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anis (Pimpinella anisum),
 Ail (Allium sativum),
@@ -578,7 +592,9 @@
           <t>Autres expectorants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La guaïfénésine est un expectorant de synthèse fréquemment rencontré.
 </t>
